--- a/data/financial_statements/sofp/ADP.xlsx
+++ b/data/financial_statements/sofp/ADP.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -134,9 +254,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -189,12 +306,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -491,2382 +605,2436 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN38"/>
+  <dimension ref="A1:AO38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>1345000000</v>
+      </c>
+      <c r="C2">
         <v>1207700000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1436300000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1634200000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1745000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1602100000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2575200000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1891500000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1602200000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1613100000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1908500000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1708200000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1507600000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>4949000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1959700000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>1826200000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>2785600000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>1490300000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>2170000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>2293600000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>1773400000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>2363600000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>2780400000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>2995500000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>2705200000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>2817600000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>3191100000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>2965100000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>2821800000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>3211900000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>1665900000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>1835500000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>1952700000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>4437300000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>3616200000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>1693900000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>1289600000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>1690900000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>1727100000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>1680300000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>3162300000</v>
+      </c>
+      <c r="C3">
         <v>2939200000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>3170600000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>3250700000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2736000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>2769700000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2727400000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>2765400000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>2509800000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>2489100000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>2441300000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>2620600000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>2587900000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>2490400000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>2439300000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>2485200000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>2638100000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>2216400000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>1984200000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>2043400000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>2045500000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>1788700000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>1703600000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>1811500000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>1839500000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>1620600000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>1742800000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>2074400000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>1634200000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>1565200000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>1546900000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>1580700000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>1595600000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>1390300000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>1498800000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>1835200000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>1730400000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>1585800000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>1595300000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>1723600000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>41636300000</v>
+      </c>
+      <c r="C4">
         <v>33821900000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>50198000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>59018900000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>46626300000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>47676100000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>35439200000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>42095500000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>37550300000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>30713200000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>27214300000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>31379900000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>37269500000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>22069100000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>29943300000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>36612600000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>26258900000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>26249200000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>27669100000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>34377000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>35531100000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>26850300000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>28174700000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>34707400000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>31263400000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>25686000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>34566500000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>41779500000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>31203200000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>25399000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>25596400000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>29376600000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>35567700000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>19965800000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>19947800000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>27003500000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>29281100000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>17759100000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>22875400000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>31029300000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>46143600000</v>
+      </c>
+      <c r="C5">
         <v>37968800000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>54804900000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>63903800000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>51107300000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>52047900000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>40741800000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>46752400000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>41662300000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>34815400000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>31564100000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>35708700000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>41365000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>29508500000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>34342300000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>40924000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>31682600000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>29955900000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>31823300000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>38714000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>39350000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>31002600000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>32658700000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>39514400000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>35808100000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>30124200000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>39500400000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>46819000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>35659200000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>30176100000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>28809200000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>32792800000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>39116000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>25793400000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>27493000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>30532600000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>32301100000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>21035800000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>26214500000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>34433200000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>655100000</v>
+      </c>
+      <c r="C6">
         <v>645100000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>652600000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>650500000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>644500000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>648700000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>684500000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>701400000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>692700000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>701500000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>703900000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>743100000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>761300000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>767100000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>764200000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>765800000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>772700000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>787700000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>793700000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>794600000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>799900000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>800400000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>779900000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>750600000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>733200000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>701000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>685000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>668800000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>679600000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>680300000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>672700000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>646000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>650300000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>650700000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>667100000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>767500000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>739300000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>735200000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>728600000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>716700000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
         <v>167000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>122000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>24000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>14000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>7800000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>7800000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>21000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>21300000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>28900000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>29200000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>46300000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>46600000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>54100000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>54300000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>59900000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>2549000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>314000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>77000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>7700000</v>
+      </c>
+      <c r="C8">
         <v>8200000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>9100000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>10200000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>9400000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>10100000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>11500000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>12900000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>15300000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>16100000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>18600000</v>
-      </c>
-      <c r="L8">
-        <v>21600000</v>
       </c>
       <c r="M8">
         <v>21600000</v>
       </c>
       <c r="N8">
+        <v>21600000</v>
+      </c>
+      <c r="O8">
         <v>22100000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>23800000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>25600000</v>
-      </c>
-      <c r="Q8">
-        <v>25200000</v>
       </c>
       <c r="R8">
         <v>25200000</v>
       </c>
       <c r="S8">
+        <v>25200000</v>
+      </c>
+      <c r="T8">
         <v>25500000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>27300000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>27400000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>27300000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>28000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>27000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>24600000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>26600000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>27100000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>27500000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>31300000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>32600000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>32200000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>31300000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>32000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>32700000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>155400000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>148900000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>147500000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>140000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>138700000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>136700000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>3680600000</v>
+      </c>
+      <c r="C9">
         <v>3642100000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>3633600000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>3651400000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>3553200000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>3537400000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>3548500000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>3546600000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>3553800000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>3542200000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>3525200000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>3406000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>3417400000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>3382200000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>3394500000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>3379000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>3248100000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>3242200000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>3129900000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>3138600000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>2997000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>2444600000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>2361200000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>2321500000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>2205300000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>2252300000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>2216200000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>2203200000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>2166500000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>2160800000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>2296700000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>2283800000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>2332700000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>2358000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>2374500000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>3738200000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>3753100000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>3734800000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>3682400000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>3712900000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>990900000</v>
+      </c>
+      <c r="C10">
         <v>1135000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>937400000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>910000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>868000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>817500000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>825800000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>475100000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>483500000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>438000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>458400000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>579900000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>596599900</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>1129400000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>934400000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>740300000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>739700000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>1053400000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>699300000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>1391000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>1371200000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>1386200000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>1352200000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>1242400000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>1228200000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>1225500000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>1241300000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>1399300000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>1341900000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>1309200000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>1270800000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>1324200000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>1325800000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>1326700000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>1315700000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>1355000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>1320900000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>1286500000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>1189900000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>1089800000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>8309400000</v>
+      </c>
+      <c r="C11">
         <v>8395900000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>8263300000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>8164300000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>7995300000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>7939299000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>8030700000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>7655300000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>7663600000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>7574700000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>7601400000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>7674700000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>7694400000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>8206200000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>7545400000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>7272300000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>7123700000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>7460800000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>7025800000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>5351500000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>5195500000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>4658500000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>4521300000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>4341500000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>4191300000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>4213200000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>4169600000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>4306601000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>4240300000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>4204200000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>4301300000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>4314500000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>4387100000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>4414700000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>4566800000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>6063900000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>6020700000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>8445500000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>6053600000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>5733100000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>54453000000</v>
+      </c>
+      <c r="C12">
         <v>46364700000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>63068200000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>72068100000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>59102600000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>59987200000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>48772500000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>54407700000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>49325900000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>42390100000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>39165500000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>43383400000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>49059400000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>37714700000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>41887700000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>48196300000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>38806300000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>37416700000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>38849100000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>44065500000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>44545500000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>35661100000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>37180000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>43855900000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>39999400000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>34337400000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>43670000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>51125600000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>39899500000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>34380300000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>33110500000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>37107300000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>43503100000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>30208100000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>32059800000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>36596500000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>38321800000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>29481300000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>32268100000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>40166300000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O13">
         <v>3536700000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>1937000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>2173000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>2477000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>85300000</v>
+      </c>
+      <c r="C14">
         <v>82700000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>110200000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>81700000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>103500000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>77800000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>141100000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>112200000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>113900000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>111200000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>102000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>115500000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>132900000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>108800000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>125500000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>156300000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>151300000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>131800000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>135400000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>105700000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>136800000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>112600000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>149700000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>126500000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>137400000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>117800000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>152300000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>158400000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>138700000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>146500000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>194500000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>130800000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>136400000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>146900000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>152100000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>145600000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>140600000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>148900000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>156500000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>149700000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>514600000</v>
+      </c>
+      <c r="C15">
         <v>428800000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>429600000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>431700000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>433600000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>389500000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>390800000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>392700000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>394400000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>387100000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>387300000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>387900000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>389300000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>339100000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>340100000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>340000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>341000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>298800000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>298900000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>275100000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>275200000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>249000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>250500000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>251000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>253200000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>237300000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>238400000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>238800000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>239600000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>225700000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>226400000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>228800000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>232000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>228600000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>226900000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>227000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>226700000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>205600000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>206700000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>207200000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>2964100000</v>
+      </c>
+      <c r="C16">
         <v>2666300000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>2970400000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>2866200000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>2527100000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>2348800000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>2873500000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2763000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>2365500000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>2394900000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>2537700000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>2542700000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>2480200000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>2438200000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>2480100000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>2286100000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>2502900000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>2050400000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>2215300000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>2101100000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>2080500000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>1881500000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>1944400000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>1863300000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>1865000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>1692800000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>1863500000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>1859400000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>1613500000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>1657800000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>1786500000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>1728500000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>1666700000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>1563500000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>1793900000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>1781200000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>1754700000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>1607700000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>1809600000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>1648500000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>258000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>233000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>107000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>100000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>146000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>118000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>96000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>97000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>95000000</v>
-      </c>
-      <c r="K17">
-        <v>1001800000</v>
       </c>
       <c r="L17">
         <v>1001800000</v>
       </c>
       <c r="M17">
+        <v>1001800000</v>
+      </c>
+      <c r="N17">
         <v>1001600000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>1001300000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>11100000</v>
+      </c>
+      <c r="C18">
         <v>176800000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>38400000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>141500000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>63800000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>179300000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>58200000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>103600000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>28900000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>133000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>40100000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>50100000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>38100000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>123700000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>54800000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>99700000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>29400000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>75400000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>43900000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>80200000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>22800000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>87000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>49000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>133800000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>82700000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>101700000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>28200000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>68600000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>23400000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>99000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>27200000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>56800000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>41200000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>115300000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>19700000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>95900000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>15400000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>98400000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>39000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>85200000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>176800000</v>
+      </c>
+      <c r="C19">
         <v>172300000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>188200000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>197500000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>189400000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>191600000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>203900000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>200700000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>207700000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>205000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>212500000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>215800000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>210400000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>213100000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>220700000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>228300000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>224000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>229000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>225700000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>235400000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>227500000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>230500000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>232900000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>227200000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>215400000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>220600000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>233200000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>243900000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>215200000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>218100000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>228600000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>241500000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>232800000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>232700000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>237100000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>336200000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>302000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>302900000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>314600000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>324500000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>43061800000</v>
+      </c>
+      <c r="C20">
         <v>35639300000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>51421900000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>59387900000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>45766600000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>46482900000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>34427300000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>41043000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>36066100000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>29098400000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>25845200000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>30359000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>36269900000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>21440000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>29406500000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>36055600000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>27048300000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>26251900000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>27493500000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>33943700000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>34508100000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>25726000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>27189400000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>33816700000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>30402600000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>24349100000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>33331800000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>40681300000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>30237700000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>24240200000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>24650500000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>28328300000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>34461100000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>18935300000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>18963400000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>25992300000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>28205600000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>17058900000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>22202200000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>29703400000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>46813700000</v>
+      </c>
+      <c r="C21">
         <v>39166200000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>55158700000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>63106500000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>49084000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>49669900000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>38094800000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>44615200000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>39176500000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>32329600000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>30126600000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>34672800000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>40522400000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>29200900000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>32627700000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>39166000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>30296900000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>29037300000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>30412700000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>36741200000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>37250900000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>28286600000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>29815900000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>36418500000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>32956300000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>26719300000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>35847400000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>43250400000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>32468100000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>26587300000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>27113700000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>30714700000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>36770200000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>23159300000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>24167600000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>28578200000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>30645000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>21899400000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>24732800000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>32118500000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>2988100000</v>
+      </c>
+      <c r="C22">
         <v>2987600000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>2987100000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>2986600000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>2986100000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>2985500000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>2985000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>1994300000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>1994100000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>1993900000</v>
-      </c>
-      <c r="K22">
-        <v>1002800000</v>
       </c>
       <c r="L22">
         <v>1002800000</v>
       </c>
       <c r="M22">
+        <v>1002800000</v>
+      </c>
+      <c r="N22">
         <v>1003000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>1003400000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>2002200000</v>
-      </c>
-      <c r="P22">
-        <v>2002300000</v>
       </c>
       <c r="Q22">
         <v>2002300000</v>
       </c>
       <c r="R22">
-        <v>2002400000</v>
+        <v>2002300000</v>
       </c>
       <c r="S22">
         <v>2002400000</v>
@@ -2878,19 +3046,19 @@
         <v>2002400000</v>
       </c>
       <c r="V22">
+        <v>2002400000</v>
+      </c>
+      <c r="W22">
         <v>2002100000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>2002400000</v>
-      </c>
-      <c r="X22">
-        <v>2002500000</v>
       </c>
       <c r="Y22">
         <v>2002500000</v>
       </c>
       <c r="Z22">
-        <v>2007700000</v>
+        <v>2002500000</v>
       </c>
       <c r="AA22">
         <v>2007700000</v>
@@ -2899,777 +3067,798 @@
         <v>2007700000</v>
       </c>
       <c r="AC22">
+        <v>2007700000</v>
+      </c>
+      <c r="AD22">
         <v>1994800000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>1995200000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>9200000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>9700000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>10300000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>10900000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>11500000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>12100000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>12600000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>14200000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>14700000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>15300000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>332000000</v>
+      </c>
+      <c r="C23">
         <v>317800000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>335000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>347400000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>341500000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>352500000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>362400000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>364900000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>373900000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>370400000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>370600000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>378100000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>381000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>378200000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>399300000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>406200000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>410200000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>428600000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>448100000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>391400000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>387600000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>387500000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>391400000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>386800000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>369800000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>381800000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>381100000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>375200000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>362900000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>356700000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>362700000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>355300000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>362700000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>363700000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>375200000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>509200000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>496500000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>490700000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>493200000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>488900000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>66800000</v>
+      </c>
+      <c r="C24">
         <v>66000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>67000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>135600000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>434300000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>469300000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>482900000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>592000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>711500000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>743000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>731900000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>732200000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>702400000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>708200000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>659900000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>615800000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>580500000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>533200000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>522000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>105500000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>148600000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>196000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>163100000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>108900000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>85100000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>244500000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>251100000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>281600000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>192000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>162900000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>172100000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>228000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>238100000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>230200000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>215900000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>253300000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>285600000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>271500000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>234400000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>383500000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>931600000</v>
+      </c>
+      <c r="C25">
         <v>902100000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>924200000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>954200000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>843600000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>813600000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>834100000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>806500000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>812500000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>813900000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>837000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>745600000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>726000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>707900000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>798700000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>759800000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>752500000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>736400000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>728000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>795800000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>824800000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>835500000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>830200000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>836100000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>770600000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>734000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>701100000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>707500000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>675500000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>648000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>644300000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>621500000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>629600000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>616700000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>619400000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>627600000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>623600000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>612700000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>603100000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>599000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>4652600000</v>
+      </c>
+      <c r="C26">
         <v>4622000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>4684200000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>4768700000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>4969000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>4966600000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>5007600000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>4118600000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>4249400000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>4251600000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>3286700000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>3219900000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>3172600000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>3153100000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>3860100000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>3784100000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>3745500000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>3700600000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>3700500000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>3295100000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>3363400000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>3421100000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>3387100000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>3334300000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>3228000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>3368000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>3341000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>3372000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>3225200000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>3162800000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>1188300000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>1214500000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>1240700000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>1221500000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>1222000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>1402200000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>1418300000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>1389100000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>1345400000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>1486700000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>51466300000</v>
+      </c>
+      <c r="C27">
         <v>43788200000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>59842900000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>67875200000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>54053000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>54636500000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>43102400000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>48733800000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>43425900000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>36581200000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>33413300000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>37892700000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>43695000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>32354000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>36487800000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>42950100000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>34042400000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>32737900000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>34113200000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>40036300000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>40614300000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>31707700000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>33203000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>39752800000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>36184300000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>30087300000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>39188400000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>46622400000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>35693300000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>29750100000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>28302000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>31929200000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>38010900000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>24380800000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>25389600000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>29980400000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>32063300000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>23288500000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>26078200000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>33605200000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>1954200000</v>
+      </c>
+      <c r="C28">
         <v>1893100000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>1794200000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>1736800000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>1664700000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>1579100000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>1531300000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>1479800000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>1407600000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>1348400000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>1333800000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>1315100000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>1253700000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>1213700000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>1183200000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>1140200000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>1076100000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>1035100000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>1014800000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>964100000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>903500000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>869800000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>867800000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>833500000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>784200000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>750400000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>768100000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>735800000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>694700000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>659600000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>663300000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>614200000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>584100000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>565400000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>545200000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>513600000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>474500000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>436800000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>456900000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>451200000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
         <v>63900000</v>
@@ -3788,1016 +3977,1037 @@
       <c r="AN29">
         <v>63900000</v>
       </c>
+      <c r="AO29">
+        <v>63900000</v>
+      </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>21333000000</v>
+      </c>
+      <c r="C30">
         <v>21039000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>20696300000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>20504500000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>20011800000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>19754800000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>19451100000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>19307500000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>18893600000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>18644700000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>18436300000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>18416500000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>17987600000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>17729600000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>17500600000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>17368600000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>16959100000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>16741100000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>16546600000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>15466100000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>15060100000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>14872400000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>14728200000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>14717700000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>14384700000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>14130200000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>14003300000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>13957200000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>13666300000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>13568600000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>13460300000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>13348300000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>13090200000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>12990000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>13632900000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>13575100000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>13285000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>13139300000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>13020300000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>13003600000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>17913500000</v>
+      </c>
+      <c r="C31">
         <v>17695400000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>17335400000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>16850000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>16362400000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>15924200000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>15386800000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>14919600000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>14505400000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>14264000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>14067000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>14070400000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>13709600000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>13412600000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>13090500000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>12914600000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>12720200000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>12421200000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>12209600000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>11826100000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>11663700000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>11508100000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>11303700000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>10998800000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>10851000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>10448000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>10138600000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>10093700000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>9839600000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>9414500000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>9118400000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>8711300000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>8131300000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>7717900000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>7750000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>7577500000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>7575600000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>7517700000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>7366600000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>7166900000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>2986700000</v>
+      </c>
+      <c r="C32">
         <v>2576500000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>3225300000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>4192899000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>5049600000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>5350701000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>5670099000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>5673899000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>5899999000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>5808900000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>5752200000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>5490700000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>5364399000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>5360700000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>5399899000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>5246200000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>4763899000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>4678799000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>4735899000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>4029200000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>3931200000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>3953401000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>3977000000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>4103101000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>3815100000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>4250100000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>4481600000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>4503200000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>4206200000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>4630200000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>4808500000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>5178100000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>5492200000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>5827300000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>6670200000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>6616100000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>6258500000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>6192800000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>6189899000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>6561099000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
+        <v>2986700000</v>
+      </c>
+      <c r="C33">
         <v>2576500000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>3225300000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>4192900000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>5049600000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>5350700000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>5670100000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>5673900000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>5900000000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>5808900000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>5752200000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>5490700000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>5364400000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>5360700000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>5399900000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>5246200000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>4763900000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>4678800000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>4735900000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>4029200000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>3931200000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>3953400000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>3977000000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>4103100000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>3815100000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>4250100000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>4481600000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>4503200000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>4206200000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>4630200000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>4808500000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>5178100000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>5492200000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>5827300000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>6670200000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>6616100000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>6258500000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>6192800000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>6189900000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>6561100000</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
+        <v>54453000000</v>
+      </c>
+      <c r="C34">
         <v>46364700000</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>63068200000</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>72068100000</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>59102600000</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>59987200000</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>48772500000</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>54407700000</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>49325900000</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>42390100000</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>39165500000</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>43383400000</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>49059400000</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>37714700000</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>41887700000</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>48196300000</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>38806300000</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>37416700000</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>38849100000</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>44065500000</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>44545500000</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>35661100000</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>37180000000</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>43855900000</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>39999400000</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>34337400000</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>43670000000</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>51125600000</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>39899500000</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>34380300000</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>33110500000</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>37107300000</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>43503100000</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>30208100000</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>32059800000</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>36596500000</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>38321800000</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>29481300000</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>32268100000</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>40166300000</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B35">
+        <v>414400000</v>
+      </c>
+      <c r="C35">
         <v>415200000</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>416100000</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>418200000</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>420400000</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>422000000</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>423700000</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>426000000</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>428100000</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>429300000</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>429900000</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>429800000</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>431800000</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>433400000</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>434200000</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>435500000</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>436200000</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>438200000</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>438800000</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>441700000</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>442700000</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>444000000</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>445000000</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>447900000</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>448900000</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>453100000</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>455700000</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>456100000</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>458700000</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>463400000</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>466400000</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>471100000</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>477100000</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>481800000</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>480200000</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>481900000</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>481400000</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>481800000</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>482600000</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>485100000</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+    <row r="36" spans="1:41">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B36">
+        <v>-693900900</v>
+      </c>
+      <c r="C36">
         <v>-1065600000</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>-408299300</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>541498300</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>1496402000</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>1813299000</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>2121602000</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>2127298000</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>2346200000</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>2266702000</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>2226999000</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>2084699000</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>1946999000</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>1978499000</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>2005398000</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>1867199000</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>1515802000</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>1436599000</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>1606002000</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>890599100</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>934199200</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>1508802000</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>1615800000</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>1781598000</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>1609798000</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>1997798000</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>2265402000</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>2300003000</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>2039699000</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>2469401000</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>2511800000</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>2894302000</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>3159503000</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>3469299000</v>
       </c>
-      <c r="AI36">
+      <c r="AJ36">
         <v>4295701000</v>
       </c>
-      <c r="AJ36">
+      <c r="AK36">
         <v>2877900000</v>
       </c>
-      <c r="AK36">
+      <c r="AL36">
         <v>2505400000</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <v>2458001000</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>2507500000</v>
       </c>
-      <c r="AN36">
+      <c r="AO36">
         <v>2848202000</v>
       </c>
     </row>
-    <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37">
+    <row r="37" spans="1:41">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37">
         <v>2037900000</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>1783800000</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>1459400000</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>1341100000</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>1529400000</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>527800000</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>198800000</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>488900000</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>475800000</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>96100000</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>296400000</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>497000000</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>-2944300000</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>42500000</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>176100000</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>-783300000</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>512100000</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>-167600000</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>-291200000</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>229000000</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>-361500000</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>-778000000</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>-993000000</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>-702700000</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>-809900000</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>-1183400000</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>-957400000</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>-827000000</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>-1216700000</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>-1656700000</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>-1825800000</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>-1942400000</v>
       </c>
-      <c r="AH37">
+      <c r="AI37">
         <v>-4426400000</v>
       </c>
-      <c r="AI37">
+      <c r="AJ37">
         <v>-3604700000</v>
       </c>
-      <c r="AJ37">
+      <c r="AK37">
         <v>-1681800000</v>
       </c>
-      <c r="AK37">
+      <c r="AL37">
         <v>-1277000000</v>
       </c>
-      <c r="AL37">
+      <c r="AM37">
         <v>-1676700000</v>
       </c>
-      <c r="AM37">
+      <c r="AN37">
         <v>-1712400000</v>
       </c>
-      <c r="AN37">
+      <c r="AO37">
         <v>-1665000000</v>
       </c>
     </row>
-    <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38">
+    <row r="38" spans="1:41">
+      <c r="A38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38">
         <v>3245600000</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>3220100000</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>3093600000</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>3086100000</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>3131500000</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>3103000000</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>2090300000</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>2091100000</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>2088900000</v>
-      </c>
-      <c r="K38">
-        <v>2004600000</v>
       </c>
       <c r="L38">
         <v>2004600000</v>
@@ -4806,19 +5016,19 @@
         <v>2004600000</v>
       </c>
       <c r="N38">
+        <v>2004600000</v>
+      </c>
+      <c r="O38">
         <v>2004700000</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>2002200000</v>
-      </c>
-      <c r="P38">
-        <v>2002300000</v>
       </c>
       <c r="Q38">
         <v>2002300000</v>
       </c>
       <c r="R38">
-        <v>2002400000</v>
+        <v>2002300000</v>
       </c>
       <c r="S38">
         <v>2002400000</v>
@@ -4830,19 +5040,19 @@
         <v>2002400000</v>
       </c>
       <c r="V38">
+        <v>2002400000</v>
+      </c>
+      <c r="W38">
         <v>2002100000</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>2002400000</v>
-      </c>
-      <c r="X38">
-        <v>2002500000</v>
       </c>
       <c r="Y38">
         <v>2002500000</v>
       </c>
       <c r="Z38">
-        <v>2007700000</v>
+        <v>2002500000</v>
       </c>
       <c r="AA38">
         <v>2007700000</v>
@@ -4851,39 +5061,42 @@
         <v>2007700000</v>
       </c>
       <c r="AC38">
+        <v>2007700000</v>
+      </c>
+      <c r="AD38">
         <v>1994800000</v>
       </c>
-      <c r="AD38">
+      <c r="AE38">
         <v>1995200000</v>
       </c>
-      <c r="AE38">
+      <c r="AF38">
         <v>9200000</v>
       </c>
-      <c r="AF38">
+      <c r="AG38">
         <v>9700000</v>
       </c>
-      <c r="AG38">
+      <c r="AH38">
         <v>10300000</v>
       </c>
-      <c r="AH38">
+      <c r="AI38">
         <v>10900000</v>
       </c>
-      <c r="AI38">
+      <c r="AJ38">
         <v>11500000</v>
       </c>
-      <c r="AJ38">
+      <c r="AK38">
         <v>12100000</v>
       </c>
-      <c r="AK38">
+      <c r="AL38">
         <v>12600000</v>
       </c>
-      <c r="AL38">
+      <c r="AM38">
         <v>14200000</v>
       </c>
-      <c r="AM38">
+      <c r="AN38">
         <v>14700000</v>
       </c>
-      <c r="AN38">
+      <c r="AO38">
         <v>15300000</v>
       </c>
     </row>
